--- a/Exam/Exam2020/grades.xlsx
+++ b/Exam/Exam2020/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colin/Travail/Enseignements/R/Exam/Exam2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B4C9FD-4DB2-A240-BE07-CFF9982DB76D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F220CD-C0A6-3D48-A857-54FAD580657B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B5AD9CED-9E63-D545-AB8E-7FD645B63A4E}"/>
   </bookViews>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G3" s="8">
         <f>ROUND($G$2*E3+(1-$G$2)*F3,1)</f>
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G4" s="8">
         <f t="shared" ref="G4:G15" si="2">ROUND($G$2*E4+(1-$G$2)*F4,1)</f>
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="G5" s="8">
         <f t="shared" si="2"/>
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="G6" s="8">
         <f t="shared" si="2"/>
-        <v>9.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="G7" s="8">
         <f t="shared" si="2"/>
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="2"/>
-        <v>18.399999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="2"/>
-        <v>12.1</v>
+        <v>11.2</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="2"/>
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="G12" s="8">
         <f t="shared" si="2"/>
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G13" s="8">
         <f t="shared" si="2"/>
-        <v>15.9</v>
+        <v>15.1</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="G15" s="8">
         <f t="shared" si="2"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
